--- a/ResultadosEncuesta.xlsx
+++ b/ResultadosEncuesta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Formulación de proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B207-A715-493C-B93A-71181A97C55B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620FB403-5BF0-473A-9193-22410A5CAF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3115E85B-73DE-48BD-B356-FBC44527169D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3115E85B-73DE-48BD-B356-FBC44527169D}"/>
   </bookViews>
   <sheets>
     <sheet name="Preguntas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>Preguntas generales sobre el sistema</t>
   </si>
@@ -347,12 +350,15 @@
   <si>
     <t>Pregunta 6</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +380,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -623,18 +637,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,6 +751,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,6 +820,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9285-4730-925E-88BBE52634F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -822,6 +844,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9285-4730-925E-88BBE52634F2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -852,10 +879,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1057,6 +1084,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-74B0-4893-AC78-E3CAAE555184}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1076,6 +1108,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-74B0-4893-AC78-E3CAAE555184}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1095,6 +1132,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-74B0-4893-AC78-E3CAAE555184}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1114,6 +1156,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-74B0-4893-AC78-E3CAAE555184}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1133,8 +1180,55 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-74B0-4893-AC78-E3CAAE555184}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11766658542545107"/>
+                  <c:y val="8.0189079157572066E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-74B0-4893-AC78-E3CAAE555184}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11428151739401542"/>
+                  <c:y val="9.3384224341572647E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-74B0-4893-AC78-E3CAAE555184}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1160,10 +1254,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1248,6 +1342,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-74B0-4893-AC78-E3CAAE555184}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1267,6 +1366,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-74B0-4893-AC78-E3CAAE555184}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1286,6 +1390,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-74B0-4893-AC78-E3CAAE555184}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1305,6 +1414,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-74B0-4893-AC78-E3CAAE555184}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1324,6 +1438,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-74B0-4893-AC78-E3CAAE555184}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -1552,6 +1671,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ED0D-4C89-9742-336F5C3F5E99}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1571,6 +1695,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ED0D-4C89-9742-336F5C3F5E99}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1590,6 +1719,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ED0D-4C89-9742-336F5C3F5E99}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1609,6 +1743,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ED0D-4C89-9742-336F5C3F5E99}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1628,8 +1767,62 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ED0D-4C89-9742-336F5C3F5E99}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0242364091318161E-2"/>
+                  <c:y val="7.9908095163447532E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.2068664597822214E-2"/>
+                      <c:h val="7.4048348848146053E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ED0D-4C89-9742-336F5C3F5E99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1106404122297502E-2"/>
+                  <c:y val="1.0834381180771194E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-ED0D-4C89-9742-336F5C3F5E99}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1655,10 +1848,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1689,13 +1882,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -1746,6 +1939,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-ED0D-4C89-9742-336F5C3F5E99}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1765,6 +1963,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-ED0D-4C89-9742-336F5C3F5E99}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1784,6 +1987,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-ED0D-4C89-9742-336F5C3F5E99}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1803,6 +2011,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-ED0D-4C89-9742-336F5C3F5E99}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1822,6 +2035,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-ED0D-4C89-9742-336F5C3F5E99}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -2050,6 +2268,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6D39-4F2A-9F81-6430EB870FF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2069,6 +2292,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6D39-4F2A-9F81-6430EB870FF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2088,6 +2316,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6D39-4F2A-9F81-6430EB870FF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2107,6 +2340,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6D39-4F2A-9F81-6430EB870FF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2126,8 +2364,55 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6D39-4F2A-9F81-6430EB870FF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2805101410758253E-2"/>
+                  <c:y val="8.7300711529438718E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6D39-4F2A-9F81-6430EB870FF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.4309159007290654E-2"/>
+                  <c:y val="1.274174269538841E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6D39-4F2A-9F81-6430EB870FF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2153,10 +2438,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2190,10 +2475,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -2241,6 +2526,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-6D39-4F2A-9F81-6430EB870FF1}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -2260,6 +2550,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-6D39-4F2A-9F81-6430EB870FF1}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -2279,6 +2574,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-6D39-4F2A-9F81-6430EB870FF1}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -2298,6 +2598,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-6D39-4F2A-9F81-6430EB870FF1}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -2317,6 +2622,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-6D39-4F2A-9F81-6430EB870FF1}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -2545,6 +2855,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-96A2-47A5-8825-C36144B7E62C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2564,6 +2879,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-96A2-47A5-8825-C36144B7E62C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2583,6 +2903,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-96A2-47A5-8825-C36144B7E62C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2602,6 +2927,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-96A2-47A5-8825-C36144B7E62C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2621,8 +2951,55 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-96A2-47A5-8825-C36144B7E62C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.794428425742313E-2"/>
+                  <c:y val="1.1028948794166313E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-96A2-47A5-8825-C36144B7E62C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.584054594084132E-2"/>
+                  <c:y val="1.2357258953542614E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-96A2-47A5-8825-C36144B7E62C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2648,10 +3025,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2685,13 +3062,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,6 +3113,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-96A2-47A5-8825-C36144B7E62C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -2755,6 +3137,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-96A2-47A5-8825-C36144B7E62C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -2774,6 +3161,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-96A2-47A5-8825-C36144B7E62C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -2793,6 +3185,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-96A2-47A5-8825-C36144B7E62C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -2812,6 +3209,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-96A2-47A5-8825-C36144B7E62C}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -3040,6 +3442,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6716-42FB-AA63-4E5A3449D063}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3059,6 +3466,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6716-42FB-AA63-4E5A3449D063}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3089,10 +3501,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -3294,6 +3706,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9CD5-45A1-9695-330EFEE93AF7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3313,6 +3730,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9CD5-45A1-9695-330EFEE93AF7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3332,6 +3754,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9CD5-45A1-9695-330EFEE93AF7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3362,10 +3789,10 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -3573,6 +4000,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FE04-46CA-B962-39B18C05ECFE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3592,6 +4024,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FE04-46CA-B962-39B18C05ECFE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3611,6 +4048,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FE04-46CA-B962-39B18C05ECFE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3630,6 +4072,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FE04-46CA-B962-39B18C05ECFE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3649,8 +4096,55 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FE04-46CA-B962-39B18C05ECFE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7962230730246029E-2"/>
+                  <c:y val="1.4616480507757499E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FE04-46CA-B962-39B18C05ECFE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.6460956199288476E-2"/>
+                  <c:y val="1.1977451470957381E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FE04-46CA-B962-39B18C05ECFE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3676,10 +4170,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -3713,13 +4207,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,6 +4258,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-FE04-46CA-B962-39B18C05ECFE}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -3783,6 +4282,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-FE04-46CA-B962-39B18C05ECFE}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -3802,6 +4306,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-FE04-46CA-B962-39B18C05ECFE}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -3821,6 +4330,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-FE04-46CA-B962-39B18C05ECFE}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -3840,6 +4354,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-FE04-46CA-B962-39B18C05ECFE}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -4068,6 +4587,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-14AE-4907-A913-A902E4FC2437}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4087,6 +4611,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-14AE-4907-A913-A902E4FC2437}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4106,6 +4635,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-14AE-4907-A913-A902E4FC2437}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4125,6 +4659,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-14AE-4907-A913-A902E4FC2437}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4144,8 +4683,55 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-14AE-4907-A913-A902E4FC2437}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1208327567985663"/>
+                  <c:y val="8.0189079157572066E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-14AE-4907-A913-A902E4FC2437}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11033535884837194"/>
+                  <c:y val="4.0603643605570307E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-14AE-4907-A913-A902E4FC2437}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4171,10 +4757,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -4211,10 +4797,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,6 +4845,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-14AE-4907-A913-A902E4FC2437}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -4278,6 +4869,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-14AE-4907-A913-A902E4FC2437}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -4297,6 +4893,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-14AE-4907-A913-A902E4FC2437}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -4316,6 +4917,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-14AE-4907-A913-A902E4FC2437}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -4335,6 +4941,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-14AE-4907-A913-A902E4FC2437}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -4563,6 +5174,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F15E-42A3-8B88-96620569C164}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4582,6 +5198,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F15E-42A3-8B88-96620569C164}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4601,6 +5222,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F15E-42A3-8B88-96620569C164}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4620,6 +5246,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F15E-42A3-8B88-96620569C164}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4639,8 +5270,55 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F15E-42A3-8B88-96620569C164}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10576795791355"/>
+                  <c:y val="1.574317427069593E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F15E-42A3-8B88-96620569C164}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10887300015627402"/>
+                  <c:y val="1.574317427069593E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F15E-42A3-8B88-96620569C164}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4666,10 +5344,10 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -4703,13 +5381,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4754,6 +5432,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000B-F15E-42A3-8B88-96620569C164}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -4773,6 +5456,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-F15E-42A3-8B88-96620569C164}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -4792,6 +5480,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-F15E-42A3-8B88-96620569C164}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -4811,6 +5504,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-F15E-42A3-8B88-96620569C164}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -4830,6 +5528,11 @@
                       </a:outerShdw>
                     </a:effectLst>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-F15E-42A3-8B88-96620569C164}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -11392,790 +12095,793 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D66684A-490D-4E85-93F2-D56AD202678F}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+      <selection pane="topRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87.109375" style="2" customWidth="1"/>
-    <col min="2" max="17" width="11.5546875" style="4"/>
+    <col min="2" max="17" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="44"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <v>5</v>
       </c>
-      <c r="F6" s="25">
-        <v>3</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="F6" s="22">
+        <v>4</v>
+      </c>
+      <c r="G6" s="23">
         <v>5</v>
       </c>
-      <c r="H6" s="25">
-        <v>3</v>
-      </c>
-      <c r="I6" s="26">
-        <v>3</v>
-      </c>
-      <c r="J6" s="25">
-        <v>2</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="H6" s="22">
+        <v>4</v>
+      </c>
+      <c r="I6" s="23">
+        <v>4</v>
+      </c>
+      <c r="J6" s="22">
+        <v>4</v>
+      </c>
+      <c r="K6" s="23">
         <v>5</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="22">
         <v>4</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="23">
         <v>5</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <v>4</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="23">
         <v>4</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="22">
         <v>5</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <v>5</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>4</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>4</v>
       </c>
-      <c r="F7" s="25">
-        <v>3</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="F7" s="22">
+        <v>4</v>
+      </c>
+      <c r="G7" s="23">
         <v>5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>4</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>4</v>
       </c>
-      <c r="J7" s="25">
-        <v>3</v>
-      </c>
-      <c r="K7" s="26">
-        <v>3</v>
-      </c>
-      <c r="L7" s="25">
+      <c r="J7" s="22">
+        <v>4</v>
+      </c>
+      <c r="K7" s="23">
+        <v>4</v>
+      </c>
+      <c r="L7" s="22">
         <v>5</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <v>5</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <v>4</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="23">
         <v>4</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="22">
         <v>5</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="24">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>5</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>5</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>5</v>
       </c>
-      <c r="F8" s="27">
-        <v>3</v>
-      </c>
-      <c r="G8" s="28">
-        <v>3</v>
-      </c>
-      <c r="H8" s="27">
+      <c r="F8" s="24">
+        <v>5</v>
+      </c>
+      <c r="G8" s="25">
+        <v>5</v>
+      </c>
+      <c r="H8" s="24">
         <v>4</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <v>4</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>4</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="25">
         <v>4</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="24">
         <v>5</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="25">
         <v>5</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="24">
         <v>5</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="25">
         <v>5</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="24">
         <v>5</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="36" t="s">
+      <c r="Q13" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="36">
         <v>5</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="37">
         <v>5</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="36">
         <v>5</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="37">
         <v>5</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="36">
         <v>4</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="37">
         <v>4</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="36">
+        <v>4</v>
+      </c>
+      <c r="I17" s="37">
         <v>5</v>
       </c>
-      <c r="I17" s="40">
+      <c r="J17" s="36">
         <v>5</v>
       </c>
-      <c r="J17" s="39">
-        <v>3</v>
-      </c>
-      <c r="K17" s="40">
-        <v>4</v>
-      </c>
-      <c r="L17" s="39">
-        <v>4</v>
-      </c>
-      <c r="M17" s="40">
-        <v>4</v>
-      </c>
-      <c r="N17" s="39">
+      <c r="K17" s="37">
         <v>5</v>
       </c>
-      <c r="O17" s="40">
+      <c r="L17" s="36">
         <v>5</v>
       </c>
-      <c r="P17" s="39">
+      <c r="M17" s="37">
         <v>5</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="N17" s="36">
+        <v>5</v>
+      </c>
+      <c r="O17" s="37">
+        <v>5</v>
+      </c>
+      <c r="P17" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="36">
         <v>5</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="37">
         <v>5</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="36">
+        <v>5</v>
+      </c>
+      <c r="E18" s="37">
+        <v>5</v>
+      </c>
+      <c r="F18" s="36">
         <v>4</v>
       </c>
-      <c r="E18" s="40">
+      <c r="G18" s="37">
         <v>4</v>
       </c>
-      <c r="F18" s="39">
+      <c r="H18" s="36">
         <v>4</v>
       </c>
-      <c r="G18" s="40">
-        <v>4</v>
-      </c>
-      <c r="H18" s="39">
-        <v>4</v>
-      </c>
-      <c r="I18" s="40">
+      <c r="I18" s="37">
         <v>5</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="36">
         <v>5</v>
       </c>
-      <c r="K18" s="40">
-        <v>4</v>
-      </c>
-      <c r="L18" s="39">
+      <c r="K18" s="37">
         <v>5</v>
       </c>
-      <c r="M18" s="40">
+      <c r="L18" s="36">
         <v>5</v>
       </c>
-      <c r="N18" s="39">
+      <c r="M18" s="37">
         <v>5</v>
       </c>
-      <c r="O18" s="40">
+      <c r="N18" s="36">
         <v>5</v>
       </c>
-      <c r="P18" s="39">
+      <c r="O18" s="37">
         <v>5</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="P18" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="36">
+        <v>5</v>
+      </c>
+      <c r="C19" s="37">
+        <v>5</v>
+      </c>
+      <c r="D19" s="36">
+        <v>5</v>
+      </c>
+      <c r="E19" s="37">
+        <v>5</v>
+      </c>
+      <c r="F19" s="36">
+        <v>5</v>
+      </c>
+      <c r="G19" s="37">
+        <v>5</v>
+      </c>
+      <c r="H19" s="36">
         <v>4</v>
       </c>
-      <c r="C19" s="40">
+      <c r="I19" s="37">
         <v>4</v>
       </c>
-      <c r="D19" s="39">
-        <v>4</v>
-      </c>
-      <c r="E19" s="40">
-        <v>4</v>
-      </c>
-      <c r="F19" s="39">
-        <v>3</v>
-      </c>
-      <c r="G19" s="40">
-        <v>3</v>
-      </c>
-      <c r="H19" s="39">
-        <v>4</v>
-      </c>
-      <c r="I19" s="40">
+      <c r="J19" s="36">
         <v>5</v>
       </c>
-      <c r="J19" s="39">
+      <c r="K19" s="37">
         <v>5</v>
       </c>
-      <c r="K19" s="40">
-        <v>3</v>
-      </c>
-      <c r="L19" s="39">
-        <v>4</v>
-      </c>
-      <c r="M19" s="40">
-        <v>4</v>
-      </c>
-      <c r="N19" s="39">
-        <v>4</v>
-      </c>
-      <c r="O19" s="40">
-        <v>3</v>
-      </c>
-      <c r="P19" s="39">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="40">
-        <v>4</v>
+      <c r="L19" s="36">
+        <v>5</v>
+      </c>
+      <c r="M19" s="37">
+        <v>5</v>
+      </c>
+      <c r="N19" s="36">
+        <v>5</v>
+      </c>
+      <c r="O19" s="37">
+        <v>5</v>
+      </c>
+      <c r="P19" s="36">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="38">
         <v>5</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="39">
         <v>5</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>5</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="39">
         <v>5</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>5</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="39">
         <v>5</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="38">
         <v>4</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="39">
         <v>4</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="38">
         <v>4</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="39">
         <v>5</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="38">
         <v>5</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="39">
         <v>4</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="38">
         <v>5</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="39">
         <v>5</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="38">
         <v>5</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="39">
         <v>5</v>
       </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L21" s="45"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -12211,16 +12917,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2ECB19-A195-4072-8F25-A45D920755F2}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C1" t="s">
@@ -12254,7 +12960,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
@@ -12315,7 +13021,7 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Preguntas!$B$6:$Q$6,Resultados!A7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Preguntas!$B$7:$Q$7,Resultados!A7)</f>
@@ -12348,19 +13054,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Preguntas!$B$6:$Q$6,Resultados!A8)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Preguntas!$B$7:$Q$7,Resultados!A8)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f>COUNTIF(Preguntas!$B$8:$Q$8,Resultados!A8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>COUNTIF(Preguntas!$B$17:$Q$17,Resultados!A8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>COUNTIF(Preguntas!$B$18:$Q$18,Resultados!A8)</f>
@@ -12368,7 +13074,7 @@
       </c>
       <c r="G8">
         <f>COUNTIF(Preguntas!$B$19:$Q$19,Resultados!A8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f>COUNTIF(Preguntas!$B$20:$Q$20,Resultados!A8)</f>
@@ -12381,11 +13087,11 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Preguntas!$B$6:$Q$6,Resultados!A9)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Preguntas!$B$7:$Q$7,Resultados!A9)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <f>COUNTIF(Preguntas!$B$8:$Q$8,Resultados!A9)</f>
@@ -12393,15 +13099,15 @@
       </c>
       <c r="E9">
         <f>COUNTIF(Preguntas!$B$17:$Q$17,Resultados!A9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Preguntas!$B$18:$Q$18,Resultados!A9)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Preguntas!$B$19:$Q$19,Resultados!A9)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <f>COUNTIF(Preguntas!$B$20:$Q$20,Resultados!A9)</f>
@@ -12422,19 +13128,19 @@
       </c>
       <c r="D10">
         <f>COUNTIF(Preguntas!$B$8:$Q$8,Resultados!A10)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f>COUNTIF(Preguntas!$B$17:$Q$17,Resultados!A10)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f>COUNTIF(Preguntas!$B$18:$Q$18,Resultados!A10)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Preguntas!$B$19:$Q$19,Resultados!A10)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <f>COUNTIF(Preguntas!$B$20:$Q$20,Resultados!A10)</f>
@@ -12442,116 +13148,121 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f>COUNTIF(Preguntas!$B$13:$Q$13,Resultados!A13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f>COUNTIF(Preguntas!$B$13:$Q$13,Resultados!A14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f>COUNTIF(Preguntas!$B$13:$Q$13,Resultados!A15)</f>
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="G16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="L16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="Q16" s="3" t="s">
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="Q16" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="G31" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="3" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="L31" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="Q31" s="3" t="s">
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="Q31" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="G46" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
